--- a/Wiki_religion/religion_data.xlsx
+++ b/Wiki_religion/religion_data.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
-  <si>
-    <t>Andhra_Pradesh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Arunachal_Pradesh</t>
   </si>
@@ -49,9 +46,6 @@
     <t>Jharkhand</t>
   </si>
   <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
     <t>Kerala</t>
   </si>
   <si>
@@ -82,18 +76,9 @@
     <t>Rajasthan</t>
   </si>
   <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
     <t>Tamil_Nadu</t>
   </si>
   <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
     <t>Uttar_Pradesh</t>
   </si>
   <si>
@@ -106,15 +91,9 @@
     <t>Andaman_and_Nicobar_Islands</t>
   </si>
   <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
     <t>Dadra_and_Nagar_Haveli</t>
   </si>
   <si>
-    <t>Daman_and_Diu</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
@@ -127,64 +106,64 @@
     <t>Other</t>
   </si>
   <si>
+    <t>Buddhism</t>
+  </si>
+  <si>
+    <t>Atheism</t>
+  </si>
+  <si>
+    <t>Judaism</t>
+  </si>
+  <si>
     <t>Tribal</t>
   </si>
   <si>
-    <t>Judaism</t>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Heraka</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Tibetan</t>
+  </si>
+  <si>
+    <t>Hinduism</t>
+  </si>
+  <si>
+    <t>Animism</t>
+  </si>
+  <si>
+    <t>Donyi-Polo</t>
   </si>
   <si>
     <t>Christianity</t>
   </si>
   <si>
-    <t>Others</t>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>Jainism</t>
+  </si>
+  <si>
+    <t>Sikhism</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
   <si>
     <t>Atheist</t>
   </si>
   <si>
-    <t>Buddhism</t>
+    <t>Sarnaism</t>
   </si>
   <si>
     <t>Irreligion</t>
   </si>
   <si>
-    <t>Atheism</t>
-  </si>
-  <si>
-    <t>Sarnaism</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Naga</t>
-  </si>
-  <si>
-    <t>Jainism</t>
-  </si>
-  <si>
-    <t>Tibetan</t>
-  </si>
-  <si>
-    <t>Donyi-Polo</t>
-  </si>
-  <si>
-    <t>Sikhism</t>
-  </si>
-  <si>
-    <t>Islam</t>
-  </si>
-  <si>
     <t>Sanamahism</t>
-  </si>
-  <si>
-    <t>Hinduism</t>
-  </si>
-  <si>
-    <t>Heraka</t>
-  </si>
-  <si>
-    <t>Animism</t>
   </si>
 </sst>
 </file>
@@ -542,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG38"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -615,114 +594,147 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="U2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="C3">
+        <v>0.84</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.9</v>
+      </c>
+      <c r="K3">
+        <v>11.76</v>
+      </c>
+      <c r="L3">
+        <v>29.04</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>26.2</v>
+      </c>
+      <c r="O3">
+        <v>30.26</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -730,25 +742,70 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.84</v>
+        <v>0.16</v>
+      </c>
+      <c r="D4">
+        <v>0.18</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>30.26</v>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>34.22</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>61.47</v>
+      </c>
+      <c r="M4">
+        <v>0.09</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3.74</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.08</v>
       </c>
       <c r="R4">
-        <v>11.76</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>26.2</v>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.9</v>
-      </c>
-      <c r="Z4">
-        <v>29.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -756,31 +813,70 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>0.16</v>
+        <v>0.31</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.74</v>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>16.87</v>
       </c>
       <c r="K5">
-        <v>0.18</v>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>82.69</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.12</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.08</v>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X5">
-        <v>34.22</v>
-      </c>
-      <c r="AA5">
-        <v>61.47</v>
-      </c>
-      <c r="AD5">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -788,48 +884,141 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.31</v>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.12</v>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2.01</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>93.25</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.92</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.24</v>
+      </c>
+      <c r="R6">
+        <v>0.27</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>16.87</v>
-      </c>
-      <c r="X6">
-        <v>82.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>3.01</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>0.08</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
-        <v>1.92</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.27</v>
+        <v>8.33</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>66.08</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3.01</v>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.08</v>
       </c>
       <c r="R7">
-        <v>0.24</v>
+        <v>0.1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.27</v>
-      </c>
-      <c r="X7">
-        <v>2.01</v>
-      </c>
-      <c r="AA7">
-        <v>93.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -837,89 +1026,212 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>25.1</v>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.03</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>9.67</v>
       </c>
       <c r="K8">
-        <v>0.08</v>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>88.56999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.52</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.96</v>
       </c>
       <c r="R8">
-        <v>0.08</v>
+        <v>0.1</v>
+      </c>
+      <c r="S8">
+        <v>0.1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.1</v>
-      </c>
-      <c r="X8">
-        <v>8.33</v>
-      </c>
-      <c r="AA8">
-        <v>66.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.03</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
-        <v>0.52</v>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.03</v>
+        <v>0.18</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.03</v>
       </c>
       <c r="K9">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>87.45999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.2</v>
       </c>
       <c r="P9">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.21</v>
+      </c>
+      <c r="R9">
+        <v>4.91</v>
       </c>
       <c r="S9">
-        <v>0.96</v>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.1</v>
-      </c>
-      <c r="Y9">
-        <v>9.67</v>
-      </c>
-      <c r="AB9">
-        <v>88.56999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>1.15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2.18</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>95.17</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>0.18</v>
       </c>
-      <c r="K10">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>0.03</v>
       </c>
       <c r="R10">
-        <v>0.21</v>
+        <v>1.16</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>4.91</v>
-      </c>
-      <c r="X10">
-        <v>7.03</v>
-      </c>
-      <c r="AA10">
-        <v>87.45999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -927,28 +1239,70 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.89</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.18</v>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>68.31</v>
       </c>
       <c r="K11">
-        <v>1.15</v>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>28.43</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.28</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.01</v>
       </c>
       <c r="R11">
-        <v>0.03</v>
+        <v>1.87</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.001</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1.16</v>
-      </c>
-      <c r="X11">
-        <v>2.18</v>
-      </c>
-      <c r="AA11">
-        <v>95.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -956,62 +1310,212 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.28</v>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.001</v>
+        <v>14.5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.89</v>
+        <v>67.8</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.3</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01</v>
+        <v>0.6</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>12.8</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1.87</v>
-      </c>
-      <c r="Y12">
-        <v>68.31</v>
-      </c>
-      <c r="AB12">
-        <v>28.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
-        <v>4.3</v>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>26.56</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>54.73</v>
       </c>
       <c r="M13">
-        <v>12.8</v>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6</v>
+        <v>18.38</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>14.5</v>
-      </c>
-      <c r="Y13">
-        <v>67.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="C14">
+        <v>0.83</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>6.57</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>90.89</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.29</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.78</v>
+      </c>
+      <c r="R14">
+        <v>0.2</v>
+      </c>
+      <c r="S14">
+        <v>0.13</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1019,19 +1523,70 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>0.01</v>
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>5.8</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>18.38</v>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>11.5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>79.8</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.2</v>
+      </c>
+      <c r="R15">
+        <v>0.2</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>26.56</v>
-      </c>
-      <c r="X15">
-        <v>54.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1039,31 +1594,70 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.83</v>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.07000000000000001</v>
       </c>
       <c r="G16">
-        <v>0.29</v>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.23</v>
+      </c>
+      <c r="J16">
+        <v>8.4</v>
       </c>
       <c r="K16">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>41.39</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>41.29</v>
       </c>
       <c r="P16">
-        <v>0.13</v>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.06</v>
+      </c>
+      <c r="R16">
+        <v>0.05</v>
       </c>
       <c r="S16">
-        <v>0.78</v>
+        <v>0.38</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.2</v>
-      </c>
-      <c r="Y16">
-        <v>6.57</v>
-      </c>
-      <c r="AB16">
-        <v>90.89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1071,98 +1665,212 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.33</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.35</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4.39</v>
       </c>
       <c r="K17">
-        <v>5.8</v>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>11.52</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>74.59</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.02</v>
       </c>
       <c r="R17">
-        <v>1.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0.2</v>
-      </c>
-      <c r="X17">
-        <v>11.5</v>
-      </c>
-      <c r="AA17">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
+      <c r="C18">
+        <v>0.16</v>
+      </c>
+      <c r="D18">
+        <v>8.51</v>
+      </c>
       <c r="E18">
-        <v>0.07000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>41.29</v>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.35</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2.75</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>87.16</v>
       </c>
       <c r="P18">
-        <v>0.38</v>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.03</v>
+      </c>
+      <c r="R18">
+        <v>0.03</v>
       </c>
       <c r="S18">
-        <v>0.06</v>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.05</v>
-      </c>
-      <c r="Y18">
-        <v>8.4</v>
-      </c>
-      <c r="AA18">
-        <v>7.78</v>
-      </c>
-      <c r="AC18">
-        <v>41.39</v>
-      </c>
-      <c r="AE18">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
-        <v>8.699999999999999</v>
+        <v>0.34</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>74.59</v>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.35</v>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2.44</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.33</v>
+        <v>8.74</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="P19">
+        <v>0.14</v>
+      </c>
+      <c r="Q19">
+        <v>0.13</v>
+      </c>
+      <c r="R19">
+        <v>0.1</v>
       </c>
       <c r="S19">
-        <v>0.02</v>
+        <v>0.1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.1</v>
-      </c>
-      <c r="Y19">
-        <v>4.39</v>
-      </c>
-      <c r="AB19">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1170,89 +1878,212 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <v>0.16</v>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.03</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>87.16</v>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2.17</v>
       </c>
       <c r="K20">
-        <v>8.51</v>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>93.63</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.76</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.02</v>
       </c>
       <c r="R20">
-        <v>0.03</v>
+        <v>1.05</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1.14</v>
       </c>
       <c r="V20">
-        <v>0.03</v>
-      </c>
-      <c r="X20">
-        <v>1.35</v>
-      </c>
-      <c r="AA20">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
+      <c r="C21">
+        <v>0.35</v>
+      </c>
+      <c r="D21">
+        <v>0.12</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
       <c r="F21">
-        <v>88.09999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.34</v>
+        <v>1.93</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>38.49</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.1</v>
+        <v>1.26</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.14</v>
+        <v>0.16</v>
+      </c>
+      <c r="R21">
+        <v>57.69</v>
       </c>
       <c r="S21">
-        <v>0.13</v>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.1</v>
-      </c>
-      <c r="Y21">
-        <v>2.44</v>
-      </c>
-      <c r="AB21">
-        <v>8.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>0.02</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
       <c r="F22">
-        <v>2.76</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03</v>
+        <v>9.07</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.14</v>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.14</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.91</v>
       </c>
       <c r="R22">
-        <v>0.02</v>
+        <v>1.27</v>
+      </c>
+      <c r="S22">
+        <v>0.1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1.05</v>
-      </c>
-      <c r="X22">
-        <v>2.17</v>
-      </c>
-      <c r="AA22">
-        <v>93.63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1260,28 +2091,70 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <v>0.35</v>
+        <v>0.3</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1.26</v>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.86</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>87.58</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>6.12</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>0.12</v>
       </c>
       <c r="R23">
-        <v>0.16</v>
+        <v>0.02</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>57.69</v>
-      </c>
-      <c r="X23">
-        <v>1.93</v>
-      </c>
-      <c r="AA23">
-        <v>38.49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1289,39 +2162,141 @@
         <v>21</v>
       </c>
       <c r="C24">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.14</v>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>19.26</v>
       </c>
       <c r="K24">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>79.73</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.18</v>
       </c>
       <c r="P24">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.11</v>
+      </c>
+      <c r="R24">
+        <v>0.32</v>
       </c>
       <c r="S24">
-        <v>0.91</v>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.27</v>
-      </c>
-      <c r="Y24">
-        <v>9.07</v>
-      </c>
-      <c r="AB24">
-        <v>88.48999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.13</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>13.95</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>82.97</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.37</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.09</v>
+      </c>
+      <c r="R25">
+        <v>2.34</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1329,102 +2304,354 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>0.3</v>
+        <v>1.03</v>
+      </c>
+      <c r="D26">
+        <v>0.31</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>6.12</v>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>27.01</v>
       </c>
       <c r="K26">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>70.54000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0.72</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0.07000000000000001</v>
       </c>
       <c r="R26">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0.02</v>
-      </c>
-      <c r="X26">
-        <v>5.86</v>
-      </c>
-      <c r="AA26">
-        <v>87.58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
+        <v>0.25</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>0.08</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>8.51</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>69.44</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>21.7</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0.33</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="C28">
+        <v>0.08</v>
+      </c>
+      <c r="D28">
+        <v>0.18</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3.75</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>93.93000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1.48</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0.34</v>
+      </c>
+      <c r="R28">
+        <v>0.06</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.001</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
+      <c r="C29">
+        <v>0.09</v>
+      </c>
+      <c r="D29">
+        <v>0.11</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
       <c r="F29">
-        <v>0.18</v>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>12.86</v>
       </c>
       <c r="K29">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0.87</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0.99</v>
       </c>
       <c r="R29">
-        <v>0.11</v>
+        <v>3.4</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0.32</v>
-      </c>
-      <c r="X29">
-        <v>19.26</v>
-      </c>
-      <c r="AA29">
-        <v>79.73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
       <c r="F30">
-        <v>0.37</v>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.13</v>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>77.58</v>
       </c>
       <c r="K30">
-        <v>0.15</v>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>22.11</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0.05</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0.09</v>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>2.34</v>
-      </c>
-      <c r="X30">
-        <v>13.95</v>
-      </c>
-      <c r="AA30">
-        <v>82.97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1432,180 +2659,67 @@
         <v>28</v>
       </c>
       <c r="C31">
-        <v>1.03</v>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.72</v>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
       </c>
       <c r="K31">
-        <v>0.31</v>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>87.3</v>
       </c>
       <c r="M31">
-        <v>0.25</v>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>6.2</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0.07000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y31">
-        <v>27.01</v>
-      </c>
-      <c r="AB31">
-        <v>70.54000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32">
-        <v>0.5</v>
-      </c>
-      <c r="G32">
-        <v>21.7</v>
-      </c>
-      <c r="K32">
-        <v>0.08</v>
-      </c>
-      <c r="U32">
-        <v>0.33</v>
-      </c>
-      <c r="W32">
-        <v>8.51</v>
-      </c>
-      <c r="Z32">
-        <v>69.44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34">
-        <v>0.08</v>
-      </c>
-      <c r="G34">
-        <v>1.48</v>
-      </c>
-      <c r="J34">
-        <v>0.001</v>
-      </c>
-      <c r="L34">
-        <v>0.18</v>
-      </c>
-      <c r="S34">
-        <v>0.34</v>
-      </c>
-      <c r="W34">
-        <v>0.06</v>
-      </c>
-      <c r="Y34">
-        <v>3.75</v>
-      </c>
-      <c r="AB34">
-        <v>93.93000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36">
-        <v>0.09</v>
-      </c>
-      <c r="G36">
-        <v>0.87</v>
-      </c>
-      <c r="K36">
-        <v>0.11</v>
-      </c>
-      <c r="R36">
-        <v>0.99</v>
-      </c>
-      <c r="V36">
-        <v>3.4</v>
-      </c>
-      <c r="X36">
-        <v>12.86</v>
-      </c>
-      <c r="AA36">
-        <v>81.68000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0.05</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>77.58</v>
-      </c>
-      <c r="AB37">
-        <v>22.11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38">
-        <v>6.2</v>
-      </c>
-      <c r="T38">
-        <v>6</v>
-      </c>
-      <c r="W38">
-        <v>87.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
